--- a/NC State Senate/SD31/Results.xlsx
+++ b/NC State Senate/SD31/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88ACA2-A4F4-4268-936C-DBB2B3384809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02CE9F-41A4-420E-87B7-106733387A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD31" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,10 @@
     <sheet name="2012 Forsyth" sheetId="18" r:id="rId10"/>
     <sheet name="2012 Results" sheetId="7" r:id="rId11"/>
     <sheet name="2012 County" sheetId="8" r:id="rId12"/>
+    <sheet name="2016 Gov Davie" sheetId="22" r:id="rId13"/>
+    <sheet name="2016 Gov Forsyth" sheetId="21" r:id="rId14"/>
+    <sheet name="2016 Gov Results" sheetId="23" r:id="rId15"/>
+    <sheet name="2016 Gov County" sheetId="24" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2012 Forsyth'!$A$1:$B$1033305</definedName>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="251">
   <si>
     <t>County</t>
   </si>
@@ -5549,7 +5553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B7C847-F876-491A-B11E-0149997A0081}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -5668,6 +5672,3903 @@
       <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>-7.5653780932711606E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4/$D$4</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B352F16-B756-439E-8D06-DFB4555456DE}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A16:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>208.46654551462086</v>
+      </c>
+      <c r="D2">
+        <v>574.05158843732113</v>
+      </c>
+      <c r="E2">
+        <v>794.40749565406963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>199.95770692218736</v>
+      </c>
+      <c r="D3">
+        <v>576.15819977103604</v>
+      </c>
+      <c r="E3">
+        <v>795.57122584215961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>395.66099454815799</v>
+      </c>
+      <c r="D4">
+        <v>1465.1481825987407</v>
+      </c>
+      <c r="E4">
+        <v>1914.8517303383881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>371.19808359491162</v>
+      </c>
+      <c r="D5">
+        <v>784.7127218088151</v>
+      </c>
+      <c r="E5">
+        <v>1186.1746351909608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>476.49496117627626</v>
+      </c>
+      <c r="D6">
+        <v>1313.472166571265</v>
+      </c>
+      <c r="E6">
+        <v>1832.120319236903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>355.24401123409882</v>
+      </c>
+      <c r="D7">
+        <v>824.73833714939894</v>
+      </c>
+      <c r="E7">
+        <v>1211.3270292345617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>357.37122088220718</v>
+      </c>
+      <c r="D8">
+        <v>856.33750715512303</v>
+      </c>
+      <c r="E8">
+        <v>1241.8108556969048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>661.56220056170503</v>
+      </c>
+      <c r="D9">
+        <v>724.67429879793929</v>
+      </c>
+      <c r="E9">
+        <v>1440.2790525511336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>580.72823393358669</v>
+      </c>
+      <c r="D10">
+        <v>941.6552661705781</v>
+      </c>
+      <c r="E10">
+        <v>1564.5366915935265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>565.8377663968281</v>
+      </c>
+      <c r="D11">
+        <v>1237.6341585575271</v>
+      </c>
+      <c r="E11">
+        <v>1847.7868185713764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>251.01073847678839</v>
+      </c>
+      <c r="D12">
+        <v>993.26724384659417</v>
+      </c>
+      <c r="E12">
+        <v>1272.380109982957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>817.91210969767064</v>
+      </c>
+      <c r="D13">
+        <v>1865.4043360045791</v>
+      </c>
+      <c r="E13">
+        <v>2728.7121903831007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>738.14174789360652</v>
+      </c>
+      <c r="D14">
+        <v>1460.9349599313107</v>
+      </c>
+      <c r="E14">
+        <v>2236.90649505896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>458.41367916735504</v>
+      </c>
+      <c r="D15">
+        <v>1102.8110331997709</v>
+      </c>
+      <c r="E15">
+        <v>1600.1353506649982</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B243196">
+    <sortCondition ref="B2:B243196"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B94B7A-B6EB-4EC5-A3B8-3D3CB7E27173}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>1589.6121742830589</v>
+      </c>
+      <c r="D2">
+        <v>1908.5341696167461</v>
+      </c>
+      <c r="E2">
+        <v>3596.01827850471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>538.05692977839487</v>
+      </c>
+      <c r="D3">
+        <v>1319.5503309219639</v>
+      </c>
+      <c r="E3">
+        <v>1900.0184323624842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>1256.9545703951715</v>
+      </c>
+      <c r="D4">
+        <v>1629.8995074649838</v>
+      </c>
+      <c r="E4">
+        <v>2968.4140233642429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>531.35912567326966</v>
+      </c>
+      <c r="D5">
+        <v>984.28260735724177</v>
+      </c>
+      <c r="E5">
+        <v>1551.5281090523099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>553.68513935702049</v>
+      </c>
+      <c r="D6">
+        <v>874.41446821609975</v>
+      </c>
+      <c r="E6">
+        <v>1458.5486538946461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>690.99012351208808</v>
+      </c>
+      <c r="D7">
+        <v>1949.3099738340773</v>
+      </c>
+      <c r="E7">
+        <v>2696.8483262289992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>632.94248793433599</v>
+      </c>
+      <c r="D8">
+        <v>868.75116207480369</v>
+      </c>
+      <c r="E8">
+        <v>1540.8424238511016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>753.50296182659042</v>
+      </c>
+      <c r="D9">
+        <v>1119.0692935200861</v>
+      </c>
+      <c r="E9">
+        <v>1917.1583588889109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>1039.2759369786011</v>
+      </c>
+      <c r="D10">
+        <v>662.60681853162998</v>
+      </c>
+      <c r="E10">
+        <v>1752.9936546927925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>642.98919409202381</v>
+      </c>
+      <c r="D11">
+        <v>954.83341542250264</v>
+      </c>
+      <c r="E11">
+        <v>1636.9713833564883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>1191.0928300281066</v>
+      </c>
+      <c r="D12">
+        <v>1062.4362321071264</v>
+      </c>
+      <c r="E12">
+        <v>2310.0772910180672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>941.04147677009735</v>
+      </c>
+      <c r="D13">
+        <v>954.83341542250264</v>
+      </c>
+      <c r="E13">
+        <v>1945.8983254351067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>824.94620561459305</v>
+      </c>
+      <c r="D14">
+        <v>1116.8039710635678</v>
+      </c>
+      <c r="E14">
+        <v>1980.8989505201228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>433.12466546476605</v>
+      </c>
+      <c r="D15">
+        <v>473.45239341234412</v>
+      </c>
+      <c r="E15">
+        <v>930.50130955830912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>676.47821461765</v>
+      </c>
+      <c r="D16">
+        <v>1133.7938894874558</v>
+      </c>
+      <c r="E16">
+        <v>1848.3334120070133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>870.71453366628225</v>
+      </c>
+      <c r="D17">
+        <v>1166.6410651069725</v>
+      </c>
+      <c r="E17">
+        <v>2073.241974795053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>1105.1376773456659</v>
+      </c>
+      <c r="D18">
+        <v>1504.1741111282129</v>
+      </c>
+      <c r="E18">
+        <v>2645.1981644956768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>618.43057903989791</v>
+      </c>
+      <c r="D19">
+        <v>804.18947206402947</v>
+      </c>
+      <c r="E19">
+        <v>1468.2936205862161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>593.87196398777201</v>
+      </c>
+      <c r="D20">
+        <v>963.8947052485762</v>
+      </c>
+      <c r="E20">
+        <v>1595.8279771382556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1013.6010212422875</v>
+      </c>
+      <c r="D21">
+        <v>1781.676112051716</v>
+      </c>
+      <c r="E21">
+        <v>2860.5250896972734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>395.17044220238961</v>
+      </c>
+      <c r="D22">
+        <v>465.52376481452978</v>
+      </c>
+      <c r="E22">
+        <v>882.44352581800922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>1004.6706157687872</v>
+      </c>
+      <c r="D23">
+        <v>1688.7978913344621</v>
+      </c>
+      <c r="E23">
+        <v>2767.4161910269549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>539.17323046258241</v>
+      </c>
+      <c r="D24">
+        <v>1013.7317992919809</v>
+      </c>
+      <c r="E24">
+        <v>1602.92846299707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>599.45346740870968</v>
+      </c>
+      <c r="D25">
+        <v>684.12738186855472</v>
+      </c>
+      <c r="E25">
+        <v>1339.0416122200436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>749.03775908984028</v>
+      </c>
+      <c r="D26">
+        <v>1277.6418654763736</v>
+      </c>
+      <c r="E26">
+        <v>2082.1403875089932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <v>1164.3016136076055</v>
+      </c>
+      <c r="D27">
+        <v>1525.6946744651377</v>
+      </c>
+      <c r="E27">
+        <v>2740.0197213152501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>1713.5215502278759</v>
+      </c>
+      <c r="D28">
+        <v>2179.2402031706943</v>
+      </c>
+      <c r="E28">
+        <v>3978.6715626628757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>751.27036045821535</v>
+      </c>
+      <c r="D29">
+        <v>1550.6132214868401</v>
+      </c>
+      <c r="E29">
+        <v>2341.0323557870174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>1187.743927975544</v>
+      </c>
+      <c r="D30">
+        <v>1082.8241342157919</v>
+      </c>
+      <c r="E30">
+        <v>2319.5040294937885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>197.5852211011948</v>
+      </c>
+      <c r="D31">
+        <v>351.12498076035092</v>
+      </c>
+      <c r="E31">
+        <v>556.32246344192731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>1501.4244202322432</v>
+      </c>
+      <c r="D32">
+        <v>779.27092504232724</v>
+      </c>
+      <c r="E32">
+        <v>2344.8558357377856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>1922.2697781709462</v>
+      </c>
+      <c r="D33">
+        <v>1386.3773433892566</v>
+      </c>
+      <c r="E33">
+        <v>3357.5830888626551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>1018.0662239790377</v>
+      </c>
+      <c r="D34">
+        <v>502.90158534708326</v>
+      </c>
+      <c r="E34">
+        <v>1545.9795259473742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>500.10270651601854</v>
+      </c>
+      <c r="D35">
+        <v>1064.7015545636448</v>
+      </c>
+      <c r="E35">
+        <v>1608.3028986818431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>378.42593193957651</v>
+      </c>
+      <c r="D36">
+        <v>952.56809296598431</v>
+      </c>
+      <c r="E36">
+        <v>1360.3556052870322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>876.29603708721993</v>
+      </c>
+      <c r="D37">
+        <v>702.24996152070185</v>
+      </c>
+      <c r="E37">
+        <v>1612.2574427496111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>361.68142167676336</v>
+      </c>
+      <c r="D38">
+        <v>1014.8644605202401</v>
+      </c>
+      <c r="E38">
+        <v>1414.6071900989109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>763.54966798427824</v>
+      </c>
+      <c r="D39">
+        <v>1341.0708942588888</v>
+      </c>
+      <c r="E39">
+        <v>2178.568246166873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40">
+        <v>2491.5831271065922</v>
+      </c>
+      <c r="D40">
+        <v>1652.5527320301678</v>
+      </c>
+      <c r="E40">
+        <v>4245.2701915618281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>1044.8574403995387</v>
+      </c>
+      <c r="D41">
+        <v>915.19027243343078</v>
+      </c>
+      <c r="E41">
+        <v>2008.9836801354218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>1090.6257684512279</v>
+      </c>
+      <c r="D42">
+        <v>1287.8358165307066</v>
+      </c>
+      <c r="E42">
+        <v>2430.6599501045507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>1328.3978141831742</v>
+      </c>
+      <c r="D43">
+        <v>1541.5519316607665</v>
+      </c>
+      <c r="E43">
+        <v>2931.9353044270474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>1735.8475639116268</v>
+      </c>
+      <c r="D44">
+        <v>2417.0990611051252</v>
+      </c>
+      <c r="E44">
+        <v>4247.5561618014926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>2257.1599834272088</v>
+      </c>
+      <c r="D45">
+        <v>342.06369093427736</v>
+      </c>
+      <c r="E45">
+        <v>2644.897243843775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>1059.3693492939767</v>
+      </c>
+      <c r="D46">
+        <v>39.643142989071876</v>
+      </c>
+      <c r="E46">
+        <v>1110.9746176236481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47">
+        <v>926.52956787565927</v>
+      </c>
+      <c r="D47">
+        <v>82.684269662921352</v>
+      </c>
+      <c r="E47">
+        <v>1037.4879519799974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <v>532.4754263574572</v>
+      </c>
+      <c r="D48">
+        <v>16.989918423887946</v>
+      </c>
+      <c r="E48">
+        <v>559.25253824183562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>1008.0195178213498</v>
+      </c>
+      <c r="D49">
+        <v>124.59273510851162</v>
+      </c>
+      <c r="E49">
+        <v>1148.9242420306789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>1245.7915635532961</v>
+      </c>
+      <c r="D50">
+        <v>266.17538864091119</v>
+      </c>
+      <c r="E50">
+        <v>1542.4159985157332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51">
+        <v>621.77948109246051</v>
+      </c>
+      <c r="D51">
+        <v>18.122579652147145</v>
+      </c>
+      <c r="E51">
+        <v>651.86418608520705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>642.98919409202381</v>
+      </c>
+      <c r="D52">
+        <v>33.979836847775893</v>
+      </c>
+      <c r="E52">
+        <v>690.01862222045372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>478.89299351645525</v>
+      </c>
+      <c r="D53">
+        <v>31.714514391257502</v>
+      </c>
+      <c r="E53">
+        <v>512.78243978782177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>1335.0956182882994</v>
+      </c>
+      <c r="D54">
+        <v>52.102416499923038</v>
+      </c>
+      <c r="E54">
+        <v>1400.2476260688763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55">
+        <v>957.7859870329105</v>
+      </c>
+      <c r="D55">
+        <v>41.908465445590274</v>
+      </c>
+      <c r="E55">
+        <v>1009.4816459389913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56">
+        <v>906.43615556028351</v>
+      </c>
+      <c r="D56">
+        <v>131.38870247806679</v>
+      </c>
+      <c r="E56">
+        <v>1054.1368471391679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57">
+        <v>1042.6248390311637</v>
+      </c>
+      <c r="D57">
+        <v>96.276204402031709</v>
+      </c>
+      <c r="E57">
+        <v>1155.2130325340129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>817.1321008252803</v>
+      </c>
+      <c r="D58">
+        <v>33.979836847775893</v>
+      </c>
+      <c r="E58">
+        <v>865.24899489376469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>955.55338566453543</v>
+      </c>
+      <c r="D59">
+        <v>65.694351239033395</v>
+      </c>
+      <c r="E59">
+        <v>1052.7842491651493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>1369.7009394981133</v>
+      </c>
+      <c r="D60">
+        <v>212.94031091272893</v>
+      </c>
+      <c r="E60">
+        <v>1618.5276264326405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>1626.4500968612476</v>
+      </c>
+      <c r="D61">
+        <v>52.102416499923038</v>
+      </c>
+      <c r="E61">
+        <v>1707.9140937426421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>1348.4912264985498</v>
+      </c>
+      <c r="D62">
+        <v>127.9907187932892</v>
+      </c>
+      <c r="E62">
+        <v>1500.4061959730379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <v>862.9004288769695</v>
+      </c>
+      <c r="D63">
+        <v>54.367738956441436</v>
+      </c>
+      <c r="E63">
+        <v>932.49269099417393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>909.78505761284623</v>
+      </c>
+      <c r="D64">
+        <v>146.11329844543636</v>
+      </c>
+      <c r="E64">
+        <v>1084.1724704996996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65">
+        <v>696.57162693302575</v>
+      </c>
+      <c r="D65">
+        <v>116.66410651069724</v>
+      </c>
+      <c r="E65">
+        <v>832.81012036470395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>910.90135829703377</v>
+      </c>
+      <c r="D66">
+        <v>240.12418039094968</v>
+      </c>
+      <c r="E66">
+        <v>1178.212187189346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>657.50110298646189</v>
+      </c>
+      <c r="D67">
+        <v>407.75804217331074</v>
+      </c>
+      <c r="E67">
+        <v>1100.0580552415165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68">
+        <v>2360.9759470566501</v>
+      </c>
+      <c r="D68">
+        <v>1239.131383715561</v>
+      </c>
+      <c r="E68">
+        <v>3687.1046059765704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69">
+        <v>1129.6962923977919</v>
+      </c>
+      <c r="D69">
+        <v>301.28788671694628</v>
+      </c>
+      <c r="E69">
+        <v>1484.2700101774085</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70">
+        <v>1950.1772952756346</v>
+      </c>
+      <c r="D70">
+        <v>1009.2011543789441</v>
+      </c>
+      <c r="E70">
+        <v>3036.5885313984477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
+        <v>1157.6038095024803</v>
+      </c>
+      <c r="D71">
+        <v>282.03264583653993</v>
+      </c>
+      <c r="E71">
+        <v>1471.1729676006007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72">
+        <v>914.25026034959637</v>
+      </c>
+      <c r="D72">
+        <v>188.02176389102661</v>
+      </c>
+      <c r="E72">
+        <v>1143.5957299626939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73">
+        <v>1675.5673269654994</v>
+      </c>
+      <c r="D73">
+        <v>771.34229644451284</v>
+      </c>
+      <c r="E73">
+        <v>2511.0701138732279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>813.78319877271758</v>
+      </c>
+      <c r="D74">
+        <v>389.63546252116362</v>
+      </c>
+      <c r="E74">
+        <v>1228.4303779151344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>1087.2768663986653</v>
+      </c>
+      <c r="D75">
+        <v>573.12658149915342</v>
+      </c>
+      <c r="E75">
+        <v>1697.3772898596717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76">
+        <v>582.70895714589653</v>
+      </c>
+      <c r="D76">
+        <v>483.64634446667691</v>
+      </c>
+      <c r="E76">
+        <v>1082.6672907133909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77">
+        <v>868.48193229790718</v>
+      </c>
+      <c r="D77">
+        <v>362.45159304294287</v>
+      </c>
+      <c r="E77">
+        <v>1270.082299182812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78">
+        <v>660.8500050390245</v>
+      </c>
+      <c r="D78">
+        <v>272.97135601046637</v>
+      </c>
+      <c r="E78">
+        <v>963.18294143096227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>937.69257471753474</v>
+      </c>
+      <c r="D79">
+        <v>396.43142989071879</v>
+      </c>
+      <c r="E79">
+        <v>1364.5730509297794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <v>1052.6715451888515</v>
+      </c>
+      <c r="D80">
+        <v>474.58505464060335</v>
+      </c>
+      <c r="E80">
+        <v>1569.6677714915802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>571.54595030402118</v>
+      </c>
+      <c r="D81">
+        <v>327.33909496690779</v>
+      </c>
+      <c r="E81">
+        <v>926.07169377229127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>639.6402920394612</v>
+      </c>
+      <c r="D82">
+        <v>372.64554409727566</v>
+      </c>
+      <c r="E82">
+        <v>1042.7348824582627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83">
+        <v>1664.4043201236241</v>
+      </c>
+      <c r="D83">
+        <v>1165.5084038787131</v>
+      </c>
+      <c r="E83">
+        <v>2879.9361572448438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>1278.1642833947349</v>
+      </c>
+      <c r="D84">
+        <v>787.19955364014163</v>
+      </c>
+      <c r="E84">
+        <v>2118.6496680975465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>588.29046056683433</v>
+      </c>
+      <c r="D85">
+        <v>380.57417269509006</v>
+      </c>
+      <c r="E85">
+        <v>999.31367958345027</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <v>659.73370435483696</v>
+      </c>
+      <c r="D86">
+        <v>593.51448360781899</v>
+      </c>
+      <c r="E86">
+        <v>1264.1228473632009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87">
+        <v>629.59358588177327</v>
+      </c>
+      <c r="D87">
+        <v>747.55641065106965</v>
+      </c>
+      <c r="E87">
+        <v>1389.1121218734424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88">
+        <v>549.21993662027035</v>
+      </c>
+      <c r="D88">
+        <v>473.45239341234412</v>
+      </c>
+      <c r="E88">
+        <v>1038.9843191334319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89">
+        <v>1000.2054130320371</v>
+      </c>
+      <c r="D89">
+        <v>840.43463136832383</v>
+      </c>
+      <c r="E89">
+        <v>1879.7888182423228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>684.29231940696286</v>
+      </c>
+      <c r="D90">
+        <v>687.52536555333234</v>
+      </c>
+      <c r="E90">
+        <v>1403.3541972218754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91">
+        <v>791.45718508896675</v>
+      </c>
+      <c r="D91">
+        <v>677.33141449899949</v>
+      </c>
+      <c r="E91">
+        <v>1506.8499074898737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92">
+        <v>1585.1469715463088</v>
+      </c>
+      <c r="D92">
+        <v>664.87214098814832</v>
+      </c>
+      <c r="E92">
+        <v>2317.4420008178358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93">
+        <v>1057.1367479256016</v>
+      </c>
+      <c r="D93">
+        <v>920.85357857472673</v>
+      </c>
+      <c r="E93">
+        <v>2021.4889641025081</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94">
+        <v>920.94806445472159</v>
+      </c>
+      <c r="D94">
+        <v>454.19715253193783</v>
+      </c>
+      <c r="E94">
+        <v>1397.9820017278037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>1035.9270349260385</v>
+      </c>
+      <c r="D95">
+        <v>237.85885793443126</v>
+      </c>
+      <c r="E95">
+        <v>1304.2349391819955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>1597.4262790723717</v>
+      </c>
+      <c r="D96">
+        <v>720.37254117284897</v>
+      </c>
+      <c r="E96">
+        <v>2375.4345150681088</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97">
+        <v>1195.5580327648568</v>
+      </c>
+      <c r="D97">
+        <v>326.20643373864857</v>
+      </c>
+      <c r="E97">
+        <v>1565.2631041056852</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98">
+        <v>1081.6953629777277</v>
+      </c>
+      <c r="D98">
+        <v>353.39030321686931</v>
+      </c>
+      <c r="E98">
+        <v>1473.1469740965044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99">
+        <v>1438.9115819177407</v>
+      </c>
+      <c r="D99">
+        <v>841.567292596583</v>
+      </c>
+      <c r="E99">
+        <v>2327.2399099366671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>887.4590439290954</v>
+      </c>
+      <c r="D100">
+        <v>470.05440972756656</v>
+      </c>
+      <c r="E100">
+        <v>1385.787568098079</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101">
+        <v>1086.1605657144778</v>
+      </c>
+      <c r="D101">
+        <v>1042.0483299984608</v>
+      </c>
+      <c r="E101">
+        <v>2166.2702036148457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102">
+        <v>571.54595030402118</v>
+      </c>
+      <c r="D102">
+        <v>414.55400954286591</v>
+      </c>
+      <c r="E102">
+        <v>1011.1116764681404</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B243195">
+    <sortCondition ref="B2:B243195"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0302DC-DFBB-424A-A5FF-F857D1D11423}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP($B2, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>208.46654551462086</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($B2, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>574.05158843732113</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($B2, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>794.40749565406963</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2/E2</f>
+        <v>0.2624176466801606</v>
+      </c>
+      <c r="G2" s="3">
+        <f>D2/E2</f>
+        <v>0.72261602713690398</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(C2-D2)/E2</f>
+        <v>-0.46019838045674338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP($B3, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>199.95770692218736</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP($B3, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>576.15819977103604</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($B3, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>795.57122584215961</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F54" si="0">C3/E3</f>
+        <v>0.25133853566727504</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G54" si="1">D3/E3</f>
+        <v>0.72420693591719365</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H54" si="2">(C3-D3)/E3</f>
+        <v>-0.47286840024991855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP($B4, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>395.66099454815799</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP($B4, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>1465.1481825987407</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($B4, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1914.8517303383881</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20662748362153227</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76514967680543244</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.55852219318390017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP($B5, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>371.19808359491162</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP($B5, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>784.7127218088151</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($B5, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1186.1746351909608</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31293712795936907</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66154906581903528</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.34861193785966621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP($B6, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>476.49496117627626</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP($B6, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>1313.472166571265</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($B6, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1832.120319236903</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26007842180078072</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71691370527364695</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.45683528347286617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP($B7, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>355.24401123409882</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP($B7, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>824.73833714939894</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($B7, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1211.3270292345617</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2932684590209943</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68085522509189911</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.38758676607090481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP($B8, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>357.37122088220718</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP($B8, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>856.33750715512303</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($B8, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1241.8108556969048</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28778232952525634</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68958771235297833</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.40180538282772199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP($B9, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>661.56220056170503</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP($B9, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>724.67429879793929</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($B9, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1440.2790525511336</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45932918304261589</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50314853744094945</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.3819354398333593E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP($B10, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>580.72823393358669</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP($B10, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>941.6552661705781</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($B10, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1564.5366915935265</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37118224011870121</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.60187483695986355</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.23069259684116239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP($B11, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>565.8377663968281</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP($B11, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>1237.6341585575271</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($B11, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1847.7868185713764</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.30622459296159921</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66979271965713494</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.36356812669553573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP($B12, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>251.01073847678839</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP($B12, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>993.26724384659417</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($B12, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1272.380109982957</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19727653435273407</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78063719799887354</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.58336066364613959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP($B13, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>817.91210969767064</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP($B13, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>1865.4043360045791</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($B13, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>2728.7121903831007</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29974290164432438</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68362077267763577</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.38387787103331134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP($B14, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>738.14174789360652</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP($B14, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>1460.9349599313107</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($B14, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>2236.90649505896</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32998328250379133</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65310506414028879</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.32312178163649746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP($B15, '2016 Gov Davie'!$B$2:$E$15, 2, FALSE)</f>
+        <v>458.41367916735504</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP($B15, '2016 Gov Davie'!$B$2:$E$15, 3, FALSE)</f>
+        <v>1102.8110331997709</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($B15, '2016 Gov Davie'!$B$2:$E$15, 4, FALSE)</f>
+        <v>1600.1353506649982</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28648431457804086</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68919859356988467</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.40271427899184381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP($B16, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1589.6121742830589</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP($B16, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1908.5341696167461</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($B16, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>3596.01827850471</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44204785714939376</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53073539170394579</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.8687534554552028E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP($B17, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>538.05692977839487</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP($B17, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1319.5503309219639</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP($B17, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1900.0184323624842</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28318511053041445</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69449343671957653</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.41130832618916208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP($B18, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1256.9545703951715</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP($B18, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1629.8995074649838</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP($B18, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2968.4140233642429</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42344314522898185</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54908092154130916</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12563777631232734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP($B19, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>531.35912567326966</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP($B19, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>984.28260735724177</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP($B19, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1551.5281090523099</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34247470127874741</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63439560109449267</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.29192089981574532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP($B20, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>553.68513935702049</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP($B20, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>874.41446821609975</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP($B20, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1458.5486538946461</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37961376048619239</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59950997581137977</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.21989621532518736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP($B21, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>690.99012351208808</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP($B21, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1949.3099738340773</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP($B21, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2696.8483262289992</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25622135171327898</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72281038383786145</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.46658903212458253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP($B22, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1191.0928300281066</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP($B22, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1062.4362321071264</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP($B22, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2310.0772910180672</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51560734987494017</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45991371641028661</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5693633464653607E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP($B23, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>941.04147677009735</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP($B23, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>954.83341542250264</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP($B23, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1945.8983254351067</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4836025934498292</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4906902909271994</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.087697477370195E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP($B24, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>433.12466546476605</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP($B24, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>473.45239341234412</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP($B24, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>930.50130955830912</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46547453616197693</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50881432250437431</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.3339786342397366E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP($B25, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>676.47821461765</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP($B25, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1133.7938894874558</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP($B25, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1848.3334120070133</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36599360820031707</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61341416116929104</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.24742055296897406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP($B26, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>870.71453366628225</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP($B26, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1166.6410651069725</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP($B26, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2073.241974795053</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41997728400822837</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5627134117918382</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.14273612778360983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP($B27, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>618.43057903989791</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP($B27, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>804.18947206402947</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP($B27, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1468.2936205862161</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42118999249822359</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54770344349991584</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12651345100169226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP($B28, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>593.87196398777201</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP($B28, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>963.8947052485762</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP($B28, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1595.8279771382556</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37214033874299068</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.60400915327797178</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.23186881453498107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP($B29, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1013.6010212422875</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP($B29, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1781.676112051716</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP($B29, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2860.5250896972734</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35434089527582363</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62284932177968388</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.2685084265038602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP($B30, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>395.17044220238961</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP($B30, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>465.52376481452978</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP($B30, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>882.44352581800922</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44781386076358115</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52753944155576149</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.9725580792180339E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP($B31, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1004.6706157687872</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP($B31, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1688.7978913344621</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP($B31, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2767.4161910269549</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36303560665227086</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6102435538283707</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.24720794717609981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP($B32, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>539.17323046258241</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP($B32, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1013.7317992919809</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP($B32, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1602.92846299707</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33636761896065226</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63242485406776006</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.2960572351071078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP($B33, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>599.45346740870968</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP($B33, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>684.12738186855472</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP($B33, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1339.0416122200436</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44767351659434612</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.51090823139866148</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.323471480431532E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP($B34, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>749.03775908984028</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP($B34, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1277.6418654763736</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP($B34, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2082.1403875089932</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35974411888045904</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61361946252092248</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.25387534364046344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP($B35, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1501.4244202322432</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP($B35, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>779.27092504232724</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP($B35, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2344.8558357377856</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64030564154483927</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33233212599491746</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30797351554992186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP($B36, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1922.2697781709462</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP($B36, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1386.3773433892566</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP($B36, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>3357.5830888626551</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57251592210696245</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41290931801150954</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15960660409545291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP($B37, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1018.0662239790377</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP($B37, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>502.90158534708326</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP($B37, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1545.9795259473742</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65852503664637341</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32529640716872094</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33322862947765247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP($B38, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>361.68142167676336</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP($B38, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1014.8644605202401</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP($B38, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1414.6071900989109</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25567622178668142</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71741785820364712</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.46174163641696558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP($B39, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>763.54966798427824</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP($B39, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1341.0708942588888</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP($B39, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2178.568246166873</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35048232678857849</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61557442444984856</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.26509209766127007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP($B40, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>2491.5831271065922</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP($B40, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1652.5527320301678</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP($B40, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>4245.2701915618281</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58690802108638995</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38926915307178511</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19763886801460484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP($B41, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>957.7859870329105</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP($B41, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>41.908465445590274</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP($B41, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1009.4816459389913</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94878989715757045</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1514836465013888E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90727506069255659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP($B42, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1042.6248390311637</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP($B42, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>96.276204402031709</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP($B42, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1155.2130325340129</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9025390206550199</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3340649465186031E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81919837118983396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP($B43, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1626.4500968612476</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP($B43, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>52.102416499923038</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP($B43, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1707.9140937426421</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95230205243937172</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0506462058491637E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9217955903808801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP($B44, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1348.4912264985498</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP($B44, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>127.9907187932892</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP($B44, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1500.4061959730379</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89875077170287965</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5304045755612956E-2</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81344672594726664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP($B45, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>862.9004288769695</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP($B45, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>54.367738956441436</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP($B45, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>932.49269099417393</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92536964333413818</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8303662303752168E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86706598103038601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP($B46, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>909.78505761284623</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP($B46, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>146.11329844543636</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP($B46, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1084.1724704996996</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83915159475827916</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13476942315099749</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70438217160728167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP($B47, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>696.57162693302575</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP($B47, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>116.66410651069724</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP($B47, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>832.81012036470395</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83641109767972477</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14008488088450188</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69632621679522289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP($B48, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>910.90135829703377</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP($B48, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>240.12418039094968</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP($B48, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1178.212187189346</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77312165686387213</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20380385044545482</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="2"/>
+        <v>0.56931780641841723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP($B49, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>657.50110298646189</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP($B49, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>407.75804217331074</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP($B49, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1100.0580552415165</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59769673050765326</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37066956623829089</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22702716426936242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP($B50, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>2360.9759470566501</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP($B50, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1239.131383715561</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP($B50, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>3687.1046059765704</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64033332366802198</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33607166493378166</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30426165873424038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP($B51, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1950.1772952756346</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP($B51, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>1009.2011543789441</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP($B51, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>3036.5885313984477</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64222639159396233</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33234702164740582</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30987936994655657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP($B52, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>1675.5673269654994</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP($B52, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>771.34229644451284</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP($B52, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>2511.0701138732279</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66727221900666167</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30717672604320367</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="2"/>
+        <v>0.360095492963458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP($B53, '2016 Gov Forsyth'!$B$2:$E$102, 2, FALSE)</f>
+        <v>813.78319877271758</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP($B53, '2016 Gov Forsyth'!$B$2:$E$102, 3, FALSE)</f>
+        <v>389.63546252116362</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP($B53, '2016 Gov Forsyth'!$B$2:$E$102, 4, FALSE)</f>
+        <v>1228.4303779151344</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66245772931295699</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31718155910670698</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34527617020625001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <f>SUM(C2:C53)</f>
+        <v>45096.608994098744</v>
+      </c>
+      <c r="D54">
+        <f>SUM(D2:D53)</f>
+        <v>48227.38445436355</v>
+      </c>
+      <c r="E54">
+        <f>SUM(E2:E53)</f>
+        <v>95595.863203230678</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47174226460224794</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50449237904610178</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.2750114443853888E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570A2450-3031-4BA4-B57E-64A48CADC34E}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2">
+        <v>6438</v>
+      </c>
+      <c r="C2">
+        <v>14720.999999999998</v>
+      </c>
+      <c r="D2">
+        <v>21666.999999999996</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/D2</f>
+        <v>0.29713389024784237</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2/D2</f>
+        <v>0.67942031661051372</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(B2-C2)/D2</f>
+        <v>-0.38228642636267135</v>
+      </c>
+      <c r="H2" s="3">
+        <f>D2/$D$4</f>
+        <v>0.22665206708722677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>38658.608994098751</v>
+      </c>
+      <c r="C3">
+        <v>33506.38445436355</v>
+      </c>
+      <c r="D3">
+        <v>73928.863203230692</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E4" si="0">B3/D3</f>
+        <v>0.52291631872961586</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F4" si="1">C3/D3</f>
+        <v>0.45322466764103198</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G4" si="2">(B3-C3)/D3</f>
+        <v>6.9691651088583884E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <f>D3/$D$4</f>
+        <v>0.77334793291277315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <f>B2+B3</f>
+        <v>45096.608994098751</v>
+      </c>
+      <c r="C4">
+        <f>C2+C3</f>
+        <v>48227.38445436355</v>
+      </c>
+      <c r="D4">
+        <f>D2+D3</f>
+        <v>95595.863203230692</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47174226460224794</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50449237904610178</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.2750114443853812E-2</v>
       </c>
       <c r="H4" s="3">
         <f>D4/$D$4</f>
